--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1007454.609174635</v>
+        <v>1002940.738668537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30171402.29412592</v>
+        <v>30171402.29412591</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7390920.20728198</v>
+        <v>7390920.207281976</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4608000.683266643</v>
+        <v>4608000.683266644</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>210.1161913164022</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V11" t="n">
-        <v>125.548758745696</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>24.89443872061031</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>149.0504431822599</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I13" t="n">
-        <v>21.44951523389931</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>153.0757232160747</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U13" t="n">
         <v>277.3345352391432</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>85.62335086621312</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T14" t="n">
         <v>210.1161913164022</v>
@@ -1666,16 +1666,16 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>353.3522472873534</v>
       </c>
     </row>
     <row r="15">
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>85.66619874598769</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H16" t="n">
         <v>134.5230953913808</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3345352391432</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>111.9113105531293</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>202.231810480964</v>
+        <v>148.3766162888854</v>
       </c>
     </row>
     <row r="18">
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.713139123526</v>
+        <v>23.87997774708346</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>169.2451004101352</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U19" t="n">
         <v>277.3345352391432</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2083,10 +2083,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>206.3734015184696</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>75.73261872846955</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2146,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.9697158785003</v>
       </c>
       <c r="U22" t="n">
-        <v>95.17140405964957</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.49660399976214</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3310518139933</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>31.31608763948965</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.5230953913808</v>
       </c>
       <c r="I25" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>242.192962296527</v>
       </c>
       <c r="X25" t="n">
-        <v>43.31070341830622</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>158.4853857450306</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>210.1161913164022</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>132.5306007839143</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T27" t="n">
         <v>136.2242063313587</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>128.5151826284732</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.943533196782496</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>226.1091125342359</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.7695304478259</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T29" t="n">
         <v>210.1161913164022</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>5.244022354635251</v>
       </c>
       <c r="X29" t="n">
-        <v>90.84641021009216</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T30" t="n">
         <v>136.2242063313587</v>
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H31" t="n">
-        <v>60.88923321495362</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3345352391432</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>31.52908246827622</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>362.3296247535462</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>109.6066088462308</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T33" t="n">
         <v>136.2242063313587</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3207,7 +3207,7 @@
         <v>134.5230953913808</v>
       </c>
       <c r="I34" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1405668778449</v>
+        <v>203.9226002945167</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.055489295003794</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>99.01699006863825</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>37.93883424525166</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T36" t="n">
         <v>136.2242063313587</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3438,10 +3438,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.713139123526</v>
+        <v>65.18335246322826</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.0757232160747</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U37" t="n">
-        <v>130.5934485634313</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.7683086653286</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>170.2478516036894</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T39" t="n">
         <v>136.2242063313587</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>23.44850246415048</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>126.0913722852351</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.0757232160747</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>107.7499531567788</v>
+        <v>347.4128830166267</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>398.3310518139933</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T42" t="n">
         <v>136.2242063313587</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>131.0713565030426</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>79.19057562082001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I43" t="n">
-        <v>72.26896432086183</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.943533196782496</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>237.1405668778449</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>168.8098893978478</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>310.0467334981049</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.98608808836785</v>
+        <v>60.98608808836784</v>
       </c>
       <c r="T45" t="n">
         <v>136.2242063313587</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.769535031489784</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.943533196782496</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1405668778449</v>
+        <v>218.4569503363426</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.2143810303103</v>
+        <v>746.6351794700397</v>
       </c>
       <c r="C11" t="n">
-        <v>467.3136510436104</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="D11" t="n">
-        <v>467.3136510436104</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="E11" t="n">
-        <v>467.3136510436104</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H11" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="I11" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J11" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K11" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957184</v>
       </c>
       <c r="L11" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271984</v>
       </c>
       <c r="M11" t="n">
         <v>1004.389060027289</v>
@@ -5074,19 +5074,19 @@
         <v>1838.088577933628</v>
       </c>
       <c r="U11" t="n">
-        <v>1838.088577933628</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V11" t="n">
-        <v>1711.271649907673</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="W11" t="n">
-        <v>1711.271649907673</v>
+        <v>1183.501075999879</v>
       </c>
       <c r="X11" t="n">
-        <v>1299.55165107542</v>
+        <v>771.7810771676259</v>
       </c>
       <c r="Y11" t="n">
-        <v>894.2143810303103</v>
+        <v>746.6351794700397</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>891.9810417375021</v>
+        <v>597.9965975800881</v>
       </c>
       <c r="C12" t="n">
-        <v>774.4751382550069</v>
+        <v>480.4906940975928</v>
       </c>
       <c r="D12" t="n">
-        <v>670.6351797702919</v>
+        <v>376.6507356128779</v>
       </c>
       <c r="E12" t="n">
-        <v>565.9332460432291</v>
+        <v>271.9488018858151</v>
       </c>
       <c r="F12" t="n">
-        <v>472.2874157261333</v>
+        <v>178.3029715687193</v>
       </c>
       <c r="G12" t="n">
-        <v>379.2954261215308</v>
+        <v>85.31098196411673</v>
       </c>
       <c r="H12" t="n">
-        <v>336.1739133904246</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I12" t="n">
-        <v>355.9927408271118</v>
+        <v>85.46560251410961</v>
       </c>
       <c r="J12" t="n">
-        <v>433.9065976327311</v>
+        <v>316.8455455652643</v>
       </c>
       <c r="K12" t="n">
-        <v>579.7739478678603</v>
+        <v>462.7128958003935</v>
       </c>
       <c r="L12" t="n">
-        <v>1065.816906720641</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M12" t="n">
-        <v>1306.628757164958</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.15558553132</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O12" t="n">
-        <v>1780.813167743892</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P12" t="n">
-        <v>1957.979060367261</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q12" t="n">
-        <v>2068.297898352844</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.473461650528</v>
+        <v>1815.489017493114</v>
       </c>
       <c r="S12" t="n">
-        <v>2047.871352470359</v>
+        <v>1753.886908312945</v>
       </c>
       <c r="T12" t="n">
-        <v>1910.271144054845</v>
+        <v>1616.286699897431</v>
       </c>
       <c r="U12" t="n">
-        <v>1725.572802065126</v>
+        <v>1431.588357907712</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.599663204392</v>
+        <v>1226.615219046978</v>
       </c>
       <c r="W12" t="n">
-        <v>1324.07828603761</v>
+        <v>1030.093841880195</v>
       </c>
       <c r="X12" t="n">
-        <v>1160.600939804272</v>
+        <v>866.6164956468584</v>
       </c>
       <c r="Y12" t="n">
-        <v>1020.908051157565</v>
+        <v>726.9236070001508</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>694.6293466895543</v>
+        <v>736.8048879422881</v>
       </c>
       <c r="C13" t="n">
-        <v>694.6293466895543</v>
+        <v>736.8048879422881</v>
       </c>
       <c r="D13" t="n">
-        <v>531.312573816325</v>
+        <v>573.4881150690588</v>
       </c>
       <c r="E13" t="n">
-        <v>365.1043679691785</v>
+        <v>422.9321118546549</v>
       </c>
       <c r="F13" t="n">
-        <v>365.1043679691785</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7375607736976</v>
+        <v>251.0703376292153</v>
       </c>
       <c r="H13" t="n">
-        <v>63.85564623694927</v>
+        <v>115.188423092467</v>
       </c>
       <c r="I13" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J13" t="n">
-        <v>83.44117394564142</v>
+        <v>114.967019846035</v>
       </c>
       <c r="K13" t="n">
-        <v>411.3314021653587</v>
+        <v>442.8572480657523</v>
       </c>
       <c r="L13" t="n">
-        <v>895.7299881064928</v>
+        <v>550.8669404157214</v>
       </c>
       <c r="M13" t="n">
-        <v>1010.140535602993</v>
+        <v>1072.961622174227</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.107503959891</v>
+        <v>1185.928590531125</v>
       </c>
       <c r="O13" t="n">
-        <v>1601.852230825242</v>
+        <v>1664.673317396476</v>
       </c>
       <c r="P13" t="n">
-        <v>1997.970096095551</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q13" t="n">
         <v>2109.473461650528</v>
@@ -5229,22 +5229,22 @@
         <v>1947.837849112289</v>
       </c>
       <c r="T13" t="n">
-        <v>1947.837849112289</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.701954931336</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="V13" t="n">
-        <v>1385.990487539365</v>
+        <v>1428.166028792099</v>
       </c>
       <c r="W13" t="n">
-        <v>1111.138083711878</v>
+        <v>1153.313624964612</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.138083711878</v>
+        <v>1153.313624964612</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.79531540162</v>
+        <v>926.9708566543538</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1233.701462284047</v>
+        <v>469.0901992197105</v>
       </c>
       <c r="C14" t="n">
-        <v>1233.701462284047</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="D14" t="n">
-        <v>1147.213229085852</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.213229085852</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="F14" t="n">
-        <v>722.0890472752521</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G14" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H14" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="I14" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758353</v>
       </c>
       <c r="J14" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K14" t="n">
         <v>430.923107695718</v>
       </c>
       <c r="L14" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M14" t="n">
         <v>1004.389060027289</v>
@@ -5305,25 +5305,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T14" t="n">
-        <v>1897.234884563253</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U14" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V14" t="n">
-        <v>1639.038732329157</v>
+        <v>1222.403010825781</v>
       </c>
       <c r="W14" t="n">
-        <v>1639.038732329157</v>
+        <v>826.011661126128</v>
       </c>
       <c r="X14" t="n">
-        <v>1639.038732329157</v>
+        <v>826.011661126128</v>
       </c>
       <c r="Y14" t="n">
-        <v>1233.701462284047</v>
+        <v>469.0901992197105</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.00829666969776</v>
       </c>
       <c r="J15" t="n">
-        <v>422.3010458501699</v>
+        <v>139.922153475317</v>
       </c>
       <c r="K15" t="n">
-        <v>568.1683960852992</v>
+        <v>285.7895037104463</v>
       </c>
       <c r="L15" t="n">
-        <v>771.8324625632262</v>
+        <v>489.4535701883733</v>
       </c>
       <c r="M15" t="n">
-        <v>1012.644313007543</v>
+        <v>730.2654206326901</v>
       </c>
       <c r="N15" t="n">
-        <v>1262.171141373905</v>
+        <v>979.7922489990522</v>
       </c>
       <c r="O15" t="n">
-        <v>1486.828723586478</v>
+        <v>1204.449831211625</v>
       </c>
       <c r="P15" t="n">
-        <v>1663.994616209847</v>
+        <v>1381.615723834994</v>
       </c>
       <c r="Q15" t="n">
         <v>1774.31345419543</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>681.4361888605749</v>
+        <v>1089.796460891595</v>
       </c>
       <c r="C16" t="n">
-        <v>509.4636257394909</v>
+        <v>917.8238977705115</v>
       </c>
       <c r="D16" t="n">
-        <v>422.9321118546549</v>
+        <v>754.5071248972822</v>
       </c>
       <c r="E16" t="n">
-        <v>422.9321118546549</v>
+        <v>588.2989190501357</v>
       </c>
       <c r="F16" t="n">
-        <v>251.0703376292153</v>
+        <v>416.4371448246962</v>
       </c>
       <c r="G16" t="n">
         <v>251.0703376292153</v>
@@ -5436,22 +5436,22 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J16" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K16" t="n">
-        <v>164.0487930513366</v>
+        <v>241.9705096995575</v>
       </c>
       <c r="L16" t="n">
-        <v>272.0584854013057</v>
+        <v>349.9802020495266</v>
       </c>
       <c r="M16" t="n">
-        <v>794.1531671598115</v>
+        <v>523.555201954448</v>
       </c>
       <c r="N16" t="n">
-        <v>1305.15305835859</v>
+        <v>1034.555093153226</v>
       </c>
       <c r="O16" t="n">
-        <v>1783.89778522394</v>
+        <v>1513.299820018577</v>
       </c>
       <c r="P16" t="n">
         <v>1909.417685288886</v>
@@ -5460,28 +5460,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R16" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S16" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T16" t="n">
-        <v>1708.301922973052</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="U16" t="n">
-        <v>1428.166028792099</v>
+        <v>1674.715624827076</v>
       </c>
       <c r="V16" t="n">
-        <v>1146.454561400128</v>
+        <v>1393.004157435105</v>
       </c>
       <c r="W16" t="n">
-        <v>871.6021575726406</v>
+        <v>1279.962429603661</v>
       </c>
       <c r="X16" t="n">
-        <v>871.6021575726406</v>
+        <v>1279.962429603661</v>
       </c>
       <c r="Y16" t="n">
-        <v>871.6021575726406</v>
+        <v>1279.962429603661</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1296.568978822223</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="C17" t="n">
-        <v>869.6682488355227</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="D17" t="n">
-        <v>869.6682488355227</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E17" t="n">
-        <v>869.6682488355227</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F17" t="n">
-        <v>444.544067024923</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G17" t="n">
         <v>42.18946923301057</v>
@@ -5515,10 +5515,10 @@
         <v>82.97064708758353</v>
       </c>
       <c r="J17" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399275</v>
       </c>
       <c r="K17" t="n">
-        <v>430.9231076957178</v>
+        <v>430.9231076957179</v>
       </c>
       <c r="L17" t="n">
         <v>699.9256343271979</v>
@@ -5527,7 +5527,7 @@
         <v>1004.389060027289</v>
       </c>
       <c r="N17" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.52876612348</v>
       </c>
       <c r="O17" t="n">
         <v>1605.217916110744</v>
@@ -5545,22 +5545,22 @@
         <v>2109.473461650528</v>
       </c>
       <c r="T17" t="n">
-        <v>1897.234884563253</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="U17" t="n">
-        <v>1897.234884563253</v>
+        <v>1851.277309416432</v>
       </c>
       <c r="V17" t="n">
-        <v>1897.234884563253</v>
+        <v>1851.277309416432</v>
       </c>
       <c r="W17" t="n">
-        <v>1500.8435348636</v>
+        <v>1454.885959716779</v>
       </c>
       <c r="X17" t="n">
-        <v>1500.8435348636</v>
+        <v>1043.165960884526</v>
       </c>
       <c r="Y17" t="n">
-        <v>1296.568978822223</v>
+        <v>893.2905908957528</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J18" t="n">
-        <v>163.3794593197289</v>
+        <v>422.3010458501699</v>
       </c>
       <c r="K18" t="n">
-        <v>309.2468095548581</v>
+        <v>568.1683960852992</v>
       </c>
       <c r="L18" t="n">
-        <v>512.9108760327852</v>
+        <v>771.8324625632262</v>
       </c>
       <c r="M18" t="n">
-        <v>753.7227264771019</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.249554843464</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O18" t="n">
-        <v>1227.907137056037</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P18" t="n">
-        <v>1405.073029679406</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q18" t="n">
         <v>1774.31345419543</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>717.5988196221615</v>
+        <v>374.1651365343616</v>
       </c>
       <c r="C19" t="n">
-        <v>545.6262565010775</v>
+        <v>202.1925734132776</v>
       </c>
       <c r="D19" t="n">
-        <v>545.6262565010775</v>
+        <v>202.1925734132776</v>
       </c>
       <c r="E19" t="n">
-        <v>379.418050653931</v>
+        <v>202.1925734132776</v>
       </c>
       <c r="F19" t="n">
-        <v>207.5562764284915</v>
+        <v>202.1925734132776</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18946923301057</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="H19" t="n">
         <v>42.18946923301057</v>
@@ -5673,25 +5673,25 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J19" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564142</v>
       </c>
       <c r="K19" t="n">
-        <v>241.9705096995575</v>
+        <v>411.3314021653587</v>
       </c>
       <c r="L19" t="n">
-        <v>726.3690956406915</v>
+        <v>895.7299881064928</v>
       </c>
       <c r="M19" t="n">
-        <v>901.2575262576513</v>
+        <v>1417.824669864999</v>
       </c>
       <c r="N19" t="n">
-        <v>1412.257417456429</v>
+        <v>1876.387119407636</v>
       </c>
       <c r="O19" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P19" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q19" t="n">
         <v>2109.473461650528</v>
@@ -5703,22 +5703,22 @@
         <v>2109.473461650528</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.518814771604</v>
+        <v>1869.937535511291</v>
       </c>
       <c r="U19" t="n">
-        <v>1658.382920590651</v>
+        <v>1589.801641330338</v>
       </c>
       <c r="V19" t="n">
-        <v>1376.67145319868</v>
+        <v>1308.090173938367</v>
       </c>
       <c r="W19" t="n">
-        <v>1376.67145319868</v>
+        <v>1033.23777011088</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.107556644485</v>
+        <v>790.6738735566852</v>
       </c>
       <c r="Y19" t="n">
-        <v>907.7647883342272</v>
+        <v>564.3311052464272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.18946923301057</v>
+        <v>677.548180551498</v>
       </c>
       <c r="C20" t="n">
-        <v>42.18946923301057</v>
+        <v>250.6474505647981</v>
       </c>
       <c r="D20" t="n">
         <v>42.18946923301057</v>
@@ -5752,13 +5752,13 @@
         <v>82.97064708758353</v>
       </c>
       <c r="J20" t="n">
-        <v>218.9221049399275</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K20" t="n">
-        <v>430.9231076957179</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L20" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M20" t="n">
         <v>1004.389060027289</v>
@@ -5785,19 +5785,19 @@
         <v>2109.473461650528</v>
       </c>
       <c r="U20" t="n">
-        <v>2032.975866975307</v>
+        <v>1851.277309416432</v>
       </c>
       <c r="V20" t="n">
-        <v>1675.486452101556</v>
+        <v>1493.787894542681</v>
       </c>
       <c r="W20" t="n">
-        <v>1279.095102401903</v>
+        <v>1097.396544843028</v>
       </c>
       <c r="X20" t="n">
-        <v>867.3751035696503</v>
+        <v>1097.396544843028</v>
       </c>
       <c r="Y20" t="n">
-        <v>462.0378335245406</v>
+        <v>1097.396544843028</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>85.46560251410961</v>
       </c>
       <c r="J21" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652643</v>
       </c>
       <c r="K21" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003935</v>
       </c>
       <c r="L21" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M21" t="n">
-        <v>753.7227264771019</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N21" t="n">
-        <v>1003.249554843464</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O21" t="n">
-        <v>1227.907137056037</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P21" t="n">
-        <v>1405.073029679406</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R21" t="n">
         <v>1815.489017493114</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.9346866661559</v>
+        <v>377.3680163316794</v>
       </c>
       <c r="C22" t="n">
-        <v>745.9621235450719</v>
+        <v>377.3680163316794</v>
       </c>
       <c r="D22" t="n">
-        <v>582.6453506718426</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="E22" t="n">
-        <v>416.4371448246962</v>
+        <v>214.0512434584501</v>
       </c>
       <c r="F22" t="n">
-        <v>416.4371448246962</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="G22" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H22" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I22" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J22" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K22" t="n">
-        <v>164.0487930513366</v>
+        <v>241.9705096995575</v>
       </c>
       <c r="L22" t="n">
-        <v>272.0584854013057</v>
+        <v>349.9802020495266</v>
       </c>
       <c r="M22" t="n">
         <v>523.555201954448</v>
@@ -5937,25 +5937,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S22" t="n">
-        <v>1954.851519008029</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T22" t="n">
-        <v>1954.851519008029</v>
+        <v>1873.140415308609</v>
       </c>
       <c r="U22" t="n">
-        <v>1858.718787634645</v>
+        <v>1593.004521127656</v>
       </c>
       <c r="V22" t="n">
-        <v>1577.007320242674</v>
+        <v>1311.293053735685</v>
       </c>
       <c r="W22" t="n">
-        <v>1577.007320242674</v>
+        <v>1036.440649908198</v>
       </c>
       <c r="X22" t="n">
-        <v>1334.443423688479</v>
+        <v>793.8767533540031</v>
       </c>
       <c r="Y22" t="n">
-        <v>1108.100655378222</v>
+        <v>567.5339850437451</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>479.3891215701373</v>
+        <v>444.544067024923</v>
       </c>
       <c r="C23" t="n">
-        <v>479.3891215701373</v>
+        <v>444.544067024923</v>
       </c>
       <c r="D23" t="n">
-        <v>479.3891215701373</v>
+        <v>444.544067024923</v>
       </c>
       <c r="E23" t="n">
-        <v>479.3891215701373</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F23" t="n">
         <v>444.544067024923</v>
@@ -5986,16 +5986,16 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I23" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758364</v>
       </c>
       <c r="J23" t="n">
-        <v>218.9221049399275</v>
+        <v>218.9221049399276</v>
       </c>
       <c r="K23" t="n">
-        <v>430.9231076957179</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L23" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271981</v>
       </c>
       <c r="M23" t="n">
         <v>1004.389060027289</v>
@@ -6016,25 +6016,25 @@
         <v>2109.473461650528</v>
       </c>
       <c r="S23" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T23" t="n">
-        <v>2050.327155020903</v>
+        <v>2077.841049893468</v>
       </c>
       <c r="U23" t="n">
-        <v>2050.327155020903</v>
+        <v>2077.841049893468</v>
       </c>
       <c r="V23" t="n">
-        <v>1692.837740147153</v>
+        <v>2077.841049893468</v>
       </c>
       <c r="W23" t="n">
-        <v>1296.4463904475</v>
+        <v>1681.449700193815</v>
       </c>
       <c r="X23" t="n">
-        <v>884.7263916152469</v>
+        <v>1269.729701361563</v>
       </c>
       <c r="Y23" t="n">
-        <v>479.3891215701373</v>
+        <v>864.392431316453</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>163.3794593197289</v>
       </c>
       <c r="K24" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003935</v>
       </c>
       <c r="L24" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783205</v>
       </c>
       <c r="M24" t="n">
-        <v>1012.644313007543</v>
+        <v>907.1888127226373</v>
       </c>
       <c r="N24" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P24" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R24" t="n">
         <v>1815.489017493114</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>917.8238977705115</v>
+        <v>679.4581367155743</v>
       </c>
       <c r="C25" t="n">
-        <v>917.8238977705115</v>
+        <v>679.4581367155743</v>
       </c>
       <c r="D25" t="n">
-        <v>754.5071248972822</v>
+        <v>516.141363842345</v>
       </c>
       <c r="E25" t="n">
-        <v>588.2989190501357</v>
+        <v>349.9331579951985</v>
       </c>
       <c r="F25" t="n">
-        <v>416.4371448246962</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="G25" t="n">
-        <v>251.0703376292153</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="H25" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="I25" t="n">
         <v>42.18946923301057</v>
@@ -6156,13 +6156,13 @@
         <v>349.9802020495266</v>
       </c>
       <c r="M25" t="n">
-        <v>523.555201954448</v>
+        <v>872.0748838080324</v>
       </c>
       <c r="N25" t="n">
-        <v>1034.555093153226</v>
+        <v>1383.07477500681</v>
       </c>
       <c r="O25" t="n">
-        <v>1513.299820018577</v>
+        <v>1826.056024591884</v>
       </c>
       <c r="P25" t="n">
         <v>1909.417685288886</v>
@@ -6171,28 +6171,28 @@
         <v>2109.473461650528</v>
       </c>
       <c r="R25" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S25" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T25" t="n">
-        <v>1708.301922973052</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.301922973052</v>
+        <v>1674.715624827076</v>
       </c>
       <c r="V25" t="n">
-        <v>1426.590455581081</v>
+        <v>1393.004157435105</v>
       </c>
       <c r="W25" t="n">
-        <v>1151.738051753593</v>
+        <v>1148.364801580027</v>
       </c>
       <c r="X25" t="n">
-        <v>1107.989866482577</v>
+        <v>905.8009050258322</v>
       </c>
       <c r="Y25" t="n">
-        <v>1107.989866482577</v>
+        <v>679.4581367155743</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.3136510436104</v>
+        <v>479.8206977106435</v>
       </c>
       <c r="C26" t="n">
-        <v>467.3136510436104</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="D26" t="n">
-        <v>467.3136510436104</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="E26" t="n">
-        <v>467.3136510436104</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F26" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G26" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H26" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="I26" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758376</v>
       </c>
       <c r="J26" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399278</v>
       </c>
       <c r="K26" t="n">
-        <v>430.9231076957181</v>
+        <v>430.9231076957183</v>
       </c>
       <c r="L26" t="n">
-        <v>699.9256343271982</v>
+        <v>699.9256343271983</v>
       </c>
       <c r="M26" t="n">
         <v>1004.389060027289</v>
@@ -6247,31 +6247,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q26" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R26" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="S26" t="n">
-        <v>2050.327155020903</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="T26" t="n">
-        <v>1838.088577933628</v>
+        <v>1897.234884563253</v>
       </c>
       <c r="U26" t="n">
-        <v>1838.088577933628</v>
+        <v>1639.038732329157</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.088577933628</v>
+        <v>1281.549317455406</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.219284212503</v>
+        <v>885.1579677557531</v>
       </c>
       <c r="X26" t="n">
-        <v>1292.49928538025</v>
+        <v>885.1579677557531</v>
       </c>
       <c r="Y26" t="n">
-        <v>887.1620153351405</v>
+        <v>479.8206977106435</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I27" t="n">
-        <v>62.00829666969776</v>
+        <v>62.00829666969777</v>
       </c>
       <c r="J27" t="n">
-        <v>139.922153475317</v>
+        <v>422.3010458501697</v>
       </c>
       <c r="K27" t="n">
-        <v>285.7895037104463</v>
+        <v>568.1683960852989</v>
       </c>
       <c r="L27" t="n">
-        <v>489.4535701883733</v>
+        <v>771.8324625632259</v>
       </c>
       <c r="M27" t="n">
-        <v>730.2654206326901</v>
+        <v>1012.644313007543</v>
       </c>
       <c r="N27" t="n">
-        <v>979.7922489990522</v>
+        <v>1262.171141373905</v>
       </c>
       <c r="O27" t="n">
-        <v>1204.449831211625</v>
+        <v>1486.828723586478</v>
       </c>
       <c r="P27" t="n">
-        <v>1381.615723834994</v>
+        <v>1663.994616209847</v>
       </c>
       <c r="Q27" t="n">
         <v>1774.31345419543</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>881.5397966053461</v>
+        <v>788.5477391593663</v>
       </c>
       <c r="C28" t="n">
-        <v>709.567233484262</v>
+        <v>616.5751760382823</v>
       </c>
       <c r="D28" t="n">
-        <v>546.2504606110327</v>
+        <v>453.258403165053</v>
       </c>
       <c r="E28" t="n">
-        <v>416.4371448246962</v>
+        <v>287.0501973179065</v>
       </c>
       <c r="F28" t="n">
-        <v>416.4371448246962</v>
+        <v>115.1884230924669</v>
       </c>
       <c r="G28" t="n">
-        <v>251.0703376292153</v>
+        <v>115.1884230924669</v>
       </c>
       <c r="H28" t="n">
-        <v>115.188423092467</v>
+        <v>115.1884230924669</v>
       </c>
       <c r="I28" t="n">
         <v>42.18946923301057</v>
       </c>
       <c r="J28" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564144</v>
       </c>
       <c r="K28" t="n">
-        <v>164.0487930513366</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L28" t="n">
-        <v>409.1446544579474</v>
+        <v>648.4473789924708</v>
       </c>
       <c r="M28" t="n">
-        <v>523.555201954448</v>
+        <v>1170.542060750977</v>
       </c>
       <c r="N28" t="n">
-        <v>1034.555093153226</v>
+        <v>1681.541951949755</v>
       </c>
       <c r="O28" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P28" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q28" t="n">
         <v>2109.473461650528</v>
@@ -6411,25 +6411,25 @@
         <v>2102.459791754789</v>
       </c>
       <c r="S28" t="n">
-        <v>2102.459791754789</v>
+        <v>1947.837849112289</v>
       </c>
       <c r="T28" t="n">
-        <v>2102.459791754789</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.323897573836</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="V28" t="n">
-        <v>1540.612430181865</v>
+        <v>1708.301922973052</v>
       </c>
       <c r="W28" t="n">
-        <v>1540.612430181865</v>
+        <v>1433.449519145565</v>
       </c>
       <c r="X28" t="n">
-        <v>1298.04853362767</v>
+        <v>1205.05647618169</v>
       </c>
       <c r="Y28" t="n">
-        <v>1071.705765317412</v>
+        <v>978.713707871432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>722.0890472752521</v>
+        <v>743.0270702983396</v>
       </c>
       <c r="C29" t="n">
-        <v>722.0890472752521</v>
+        <v>743.0270702983396</v>
       </c>
       <c r="D29" t="n">
-        <v>722.0890472752521</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="E29" t="n">
-        <v>722.0890472752521</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="F29" t="n">
-        <v>722.0890472752521</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="G29" t="n">
         <v>319.7344494833398</v>
@@ -6460,16 +6460,16 @@
         <v>42.18946923301057</v>
       </c>
       <c r="I29" t="n">
-        <v>82.97064708758364</v>
+        <v>82.97064708758366</v>
       </c>
       <c r="J29" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K29" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957182</v>
       </c>
       <c r="L29" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M29" t="n">
         <v>1004.389060027289</v>
@@ -6484,31 +6484,31 @@
         <v>1847.70796765412</v>
       </c>
       <c r="Q29" t="n">
-        <v>2021.979826295251</v>
+        <v>2021.97982629525</v>
       </c>
       <c r="R29" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020903</v>
       </c>
       <c r="T29" t="n">
-        <v>1897.234884563253</v>
+        <v>1838.088577933628</v>
       </c>
       <c r="U29" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="V29" t="n">
-        <v>1639.038732329157</v>
+        <v>1579.892425699532</v>
       </c>
       <c r="W29" t="n">
-        <v>1639.038732329157</v>
+        <v>1574.595433422122</v>
       </c>
       <c r="X29" t="n">
-        <v>1547.274681611892</v>
+        <v>1162.87543458987</v>
       </c>
       <c r="Y29" t="n">
-        <v>1141.937411566782</v>
+        <v>1162.87543458987</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>163.3794593197289</v>
       </c>
       <c r="K30" t="n">
-        <v>309.2468095548581</v>
+        <v>309.2468095548582</v>
       </c>
       <c r="L30" t="n">
-        <v>512.9108760327852</v>
+        <v>512.9108760327853</v>
       </c>
       <c r="M30" t="n">
-        <v>753.7227264771019</v>
+        <v>753.7227264771021</v>
       </c>
       <c r="N30" t="n">
         <v>1003.249554843464</v>
       </c>
       <c r="O30" t="n">
-        <v>1381.373223301572</v>
+        <v>1227.907137056037</v>
       </c>
       <c r="P30" t="n">
-        <v>1558.539115924941</v>
+        <v>1405.073029679406</v>
       </c>
       <c r="Q30" t="n">
         <v>1668.857953910524</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.8722923063801</v>
+        <v>708.9430293743068</v>
       </c>
       <c r="C31" t="n">
-        <v>438.8722923063801</v>
+        <v>708.9430293743068</v>
       </c>
       <c r="D31" t="n">
-        <v>275.5555194331508</v>
+        <v>545.6262565010775</v>
       </c>
       <c r="E31" t="n">
-        <v>275.5555194331508</v>
+        <v>379.418050653931</v>
       </c>
       <c r="F31" t="n">
-        <v>103.6937452077112</v>
+        <v>207.5562764284915</v>
       </c>
       <c r="G31" t="n">
-        <v>103.6937452077112</v>
+        <v>42.18946923301057</v>
       </c>
       <c r="H31" t="n">
         <v>42.18946923301057</v>
@@ -6621,52 +6621,52 @@
         <v>42.18946923301057</v>
       </c>
       <c r="J31" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564144</v>
       </c>
       <c r="K31" t="n">
-        <v>302.4483928200166</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L31" t="n">
-        <v>786.8469787611507</v>
+        <v>648.4473789924708</v>
       </c>
       <c r="M31" t="n">
-        <v>901.2575262576513</v>
+        <v>1170.542060750977</v>
       </c>
       <c r="N31" t="n">
-        <v>1412.257417456429</v>
+        <v>1498.684795104432</v>
       </c>
       <c r="O31" t="n">
-        <v>1513.299820018577</v>
+        <v>1977.429521969783</v>
       </c>
       <c r="P31" t="n">
-        <v>1909.417685288886</v>
+        <v>2060.791182666785</v>
       </c>
       <c r="Q31" t="n">
         <v>2109.473461650528</v>
       </c>
       <c r="R31" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650528</v>
       </c>
       <c r="S31" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="T31" t="n">
-        <v>1708.301922973052</v>
+        <v>1954.851519008029</v>
       </c>
       <c r="U31" t="n">
-        <v>1428.166028792099</v>
+        <v>1674.715624827076</v>
       </c>
       <c r="V31" t="n">
-        <v>1146.454561400128</v>
+        <v>1642.868066778312</v>
       </c>
       <c r="W31" t="n">
-        <v>871.6021575726406</v>
+        <v>1368.015662950825</v>
       </c>
       <c r="X31" t="n">
-        <v>629.0382610184457</v>
+        <v>1125.45176639663</v>
       </c>
       <c r="Y31" t="n">
-        <v>629.0382610184457</v>
+        <v>899.1089980863724</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1170.835571146082</v>
+        <v>1743.483941697452</v>
       </c>
       <c r="C32" t="n">
-        <v>1170.835571146082</v>
+        <v>1316.583211710752</v>
       </c>
       <c r="D32" t="n">
-        <v>1170.835571146082</v>
+        <v>893.2905908957528</v>
       </c>
       <c r="E32" t="n">
-        <v>744.8586312939397</v>
+        <v>467.3136510436104</v>
       </c>
       <c r="F32" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G32" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H32" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I32" t="n">
-        <v>82.97064708758353</v>
+        <v>82.97064708758398</v>
       </c>
       <c r="J32" t="n">
-        <v>218.9221049399277</v>
+        <v>218.9221049399284</v>
       </c>
       <c r="K32" t="n">
-        <v>430.9231076957183</v>
+        <v>430.9231076957187</v>
       </c>
       <c r="L32" t="n">
-        <v>699.9256343271984</v>
+        <v>699.9256343271988</v>
       </c>
       <c r="M32" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N32" t="n">
-        <v>1314.52876612348</v>
+        <v>1314.528766123481</v>
       </c>
       <c r="O32" t="n">
-        <v>1605.217916110744</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P32" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q32" t="n">
         <v>2021.979826295251</v>
       </c>
       <c r="R32" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S32" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T32" t="n">
-        <v>1897.234884563253</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="U32" t="n">
-        <v>1639.038732329157</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="V32" t="n">
-        <v>1281.549317455406</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="W32" t="n">
-        <v>1170.835571146082</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="X32" t="n">
-        <v>1170.835571146082</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="Y32" t="n">
-        <v>1170.835571146082</v>
+        <v>2109.473461650529</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G33" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H33" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I33" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J33" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K33" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L33" t="n">
-        <v>489.4535701883733</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M33" t="n">
-        <v>730.2654206326901</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N33" t="n">
-        <v>979.7922489990522</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O33" t="n">
-        <v>1204.449831211625</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P33" t="n">
-        <v>1381.615723834994</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q33" t="n">
         <v>1668.857953910524</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.8238977705115</v>
+        <v>1089.796460891595</v>
       </c>
       <c r="C34" t="n">
         <v>917.8238977705115</v>
@@ -6855,55 +6855,55 @@
         <v>115.188423092467</v>
       </c>
       <c r="I34" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J34" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K34" t="n">
-        <v>411.3314021653587</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L34" t="n">
-        <v>777.1957673410258</v>
+        <v>807.1775772998284</v>
       </c>
       <c r="M34" t="n">
-        <v>1299.290449099532</v>
+        <v>921.588124796329</v>
       </c>
       <c r="N34" t="n">
-        <v>1412.257417456429</v>
+        <v>1034.555093153227</v>
       </c>
       <c r="O34" t="n">
-        <v>1513.299820018577</v>
+        <v>1513.299820018578</v>
       </c>
       <c r="P34" t="n">
-        <v>1909.417685288886</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q34" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R34" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S34" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T34" t="n">
-        <v>1708.301922973052</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="U34" t="n">
-        <v>1428.166028792099</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="V34" t="n">
-        <v>1428.166028792099</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="W34" t="n">
-        <v>1153.313624964612</v>
+        <v>1748.869094468114</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.16666608077</v>
+        <v>1506.305197913919</v>
       </c>
       <c r="Y34" t="n">
-        <v>917.8238977705115</v>
+        <v>1279.962429603661</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1597.736301132782</v>
+        <v>1293.813627692065</v>
       </c>
       <c r="C35" t="n">
-        <v>1170.835571146082</v>
+        <v>1293.813627692065</v>
       </c>
       <c r="D35" t="n">
-        <v>1170.835571146082</v>
+        <v>870.5210068770655</v>
       </c>
       <c r="E35" t="n">
-        <v>744.8586312939397</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F35" t="n">
-        <v>319.7344494833398</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G35" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H35" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I35" t="n">
         <v>82.97064708758364</v>
       </c>
       <c r="J35" t="n">
-        <v>218.9221049399276</v>
+        <v>218.9221049399277</v>
       </c>
       <c r="K35" t="n">
-        <v>430.923107695718</v>
+        <v>430.9231076957185</v>
       </c>
       <c r="L35" t="n">
-        <v>699.9256343271981</v>
+        <v>699.9256343271988</v>
       </c>
       <c r="M35" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N35" t="n">
-        <v>1314.528766123479</v>
+        <v>1314.528766123481</v>
       </c>
       <c r="O35" t="n">
-        <v>1605.217916110743</v>
+        <v>1605.217916110745</v>
       </c>
       <c r="P35" t="n">
-        <v>1847.707967654119</v>
+        <v>1847.70796765412</v>
       </c>
       <c r="Q35" t="n">
-        <v>2021.97982629525</v>
+        <v>2021.979826295251</v>
       </c>
       <c r="R35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="V35" t="n">
-        <v>2009.456299965035</v>
+        <v>1751.984046776779</v>
       </c>
       <c r="W35" t="n">
-        <v>2009.456299965035</v>
+        <v>1713.661991983595</v>
       </c>
       <c r="X35" t="n">
-        <v>1597.736301132782</v>
+        <v>1713.661991983595</v>
       </c>
       <c r="Y35" t="n">
-        <v>1597.736301132782</v>
+        <v>1713.661991983595</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G36" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H36" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I36" t="n">
-        <v>85.46560251410959</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J36" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K36" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L36" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M36" t="n">
-        <v>753.7227264771019</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.249554843464</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O36" t="n">
-        <v>1227.907137056037</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P36" t="n">
         <v>1558.539115924941</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.797507032139</v>
+        <v>781.390555464787</v>
       </c>
       <c r="C37" t="n">
-        <v>844.8249439110551</v>
+        <v>609.417992343703</v>
       </c>
       <c r="D37" t="n">
-        <v>681.5081710378258</v>
+        <v>446.1012194704737</v>
       </c>
       <c r="E37" t="n">
-        <v>515.2999651906794</v>
+        <v>279.8930136233272</v>
       </c>
       <c r="F37" t="n">
-        <v>343.4381909652398</v>
+        <v>108.0312393978876</v>
       </c>
       <c r="G37" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H37" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I37" t="n">
-        <v>42.18946923301056</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J37" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K37" t="n">
-        <v>411.3314021653587</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L37" t="n">
-        <v>895.7299881064928</v>
+        <v>465.5902221471493</v>
       </c>
       <c r="M37" t="n">
-        <v>1365.387228208857</v>
+        <v>987.6849039056553</v>
       </c>
       <c r="N37" t="n">
-        <v>1876.387119407635</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O37" t="n">
-        <v>1977.429521969783</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P37" t="n">
-        <v>2060.791182666785</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q37" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R37" t="n">
-        <v>2102.459791754788</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S37" t="n">
-        <v>1947.837849112288</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T37" t="n">
-        <v>1947.837849112288</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U37" t="n">
-        <v>1815.925274805792</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="V37" t="n">
-        <v>1534.213807413821</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.361403586334</v>
+        <v>1440.463189041305</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.797507032139</v>
+        <v>1197.899292487111</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.797507032139</v>
+        <v>971.5565241768527</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.18946923301057</v>
+        <v>616.5115938973365</v>
       </c>
       <c r="C38" t="n">
-        <v>42.18946923301057</v>
+        <v>616.5115938973365</v>
       </c>
       <c r="D38" t="n">
-        <v>42.18946923301057</v>
+        <v>616.5115938973365</v>
       </c>
       <c r="E38" t="n">
-        <v>42.18946923301057</v>
+        <v>616.5115938973365</v>
       </c>
       <c r="F38" t="n">
-        <v>42.18946923301057</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G38" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H38" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I38" t="n">
         <v>82.97064708758353</v>
@@ -7177,13 +7177,13 @@
         <v>218.9221049399275</v>
       </c>
       <c r="K38" t="n">
-        <v>430.9231076957179</v>
+        <v>430.923107695718</v>
       </c>
       <c r="L38" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271982</v>
       </c>
       <c r="M38" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N38" t="n">
         <v>1314.52876612348</v>
@@ -7192,34 +7192,34 @@
         <v>1605.217916110744</v>
       </c>
       <c r="P38" t="n">
-        <v>1847.70796765412</v>
+        <v>1847.707967654121</v>
       </c>
       <c r="Q38" t="n">
         <v>2021.979826295251</v>
       </c>
       <c r="R38" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S38" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T38" t="n">
-        <v>2109.473461650528</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="U38" t="n">
-        <v>1851.277309416432</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="V38" t="n">
-        <v>1493.787894542681</v>
+        <v>1838.088577933629</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.396544843028</v>
+        <v>1441.697228233976</v>
       </c>
       <c r="X38" t="n">
-        <v>685.6765460107754</v>
+        <v>1441.697228233976</v>
       </c>
       <c r="Y38" t="n">
-        <v>280.3392759656657</v>
+        <v>1036.359958188867</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G39" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H39" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I39" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J39" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K39" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L39" t="n">
-        <v>489.4535701883733</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M39" t="n">
-        <v>1011.548251946879</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N39" t="n">
-        <v>1261.075080313241</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O39" t="n">
-        <v>1485.732662525814</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P39" t="n">
-        <v>1662.898555149183</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R39" t="n">
         <v>1815.489017493114</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>713.7246961338672</v>
+        <v>386.0238065795342</v>
       </c>
       <c r="C40" t="n">
-        <v>541.7521330127831</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="D40" t="n">
-        <v>378.4353601395538</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="E40" t="n">
-        <v>378.4353601395538</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="F40" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G40" t="n">
-        <v>251.0703376292153</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H40" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I40" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J40" t="n">
-        <v>83.44117394564142</v>
+        <v>161.3628905938623</v>
       </c>
       <c r="K40" t="n">
-        <v>292.7971813998917</v>
+        <v>489.2531188135796</v>
       </c>
       <c r="L40" t="n">
-        <v>777.1957673410258</v>
+        <v>973.6517047547138</v>
       </c>
       <c r="M40" t="n">
-        <v>1299.290449099532</v>
+        <v>1088.062252251214</v>
       </c>
       <c r="N40" t="n">
-        <v>1412.257417456429</v>
+        <v>1201.029220608112</v>
       </c>
       <c r="O40" t="n">
-        <v>1513.299820018577</v>
+        <v>1513.299820018578</v>
       </c>
       <c r="P40" t="n">
-        <v>1909.417685288886</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q40" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R40" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S40" t="n">
-        <v>1947.837849112289</v>
+        <v>1954.85151900803</v>
       </c>
       <c r="T40" t="n">
-        <v>1708.301922973052</v>
+        <v>1715.315592868792</v>
       </c>
       <c r="U40" t="n">
-        <v>1428.166028792099</v>
+        <v>1435.17969868784</v>
       </c>
       <c r="V40" t="n">
-        <v>1146.454561400128</v>
+        <v>1153.468231295868</v>
       </c>
       <c r="W40" t="n">
-        <v>1146.454561400128</v>
+        <v>878.6158274683814</v>
       </c>
       <c r="X40" t="n">
-        <v>903.8906648459327</v>
+        <v>636.0519309141865</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.8906648459327</v>
+        <v>409.7091626039286</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>830.927383797251</v>
+        <v>1218.758791897121</v>
       </c>
       <c r="C41" t="n">
-        <v>830.927383797251</v>
+        <v>1218.758791897121</v>
       </c>
       <c r="D41" t="n">
-        <v>830.927383797251</v>
+        <v>795.4661710821217</v>
       </c>
       <c r="E41" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="F41" t="n">
-        <v>722.0890472752521</v>
+        <v>444.544067024923</v>
       </c>
       <c r="G41" t="n">
-        <v>319.7344494833398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H41" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I41" t="n">
-        <v>82.97064708758364</v>
+        <v>82.9706470875841</v>
       </c>
       <c r="J41" t="n">
         <v>218.9221049399281</v>
       </c>
       <c r="K41" t="n">
-        <v>430.9231076957185</v>
+        <v>430.9231076957186</v>
       </c>
       <c r="L41" t="n">
-        <v>699.9256343271985</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M41" t="n">
         <v>1004.38906002729</v>
@@ -7435,28 +7435,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R41" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S41" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T41" t="n">
-        <v>1897.234884563253</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U41" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="V41" t="n">
-        <v>1639.038732329157</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="W41" t="n">
-        <v>1242.647382629504</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="X41" t="n">
-        <v>830.927383797251</v>
+        <v>1638.607156188652</v>
       </c>
       <c r="Y41" t="n">
-        <v>830.927383797251</v>
+        <v>1638.607156188652</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G42" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H42" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I42" t="n">
-        <v>85.46560251410961</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J42" t="n">
-        <v>163.3794593197289</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K42" t="n">
-        <v>309.2468095548581</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L42" t="n">
-        <v>512.9108760327852</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M42" t="n">
-        <v>753.7227264771019</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N42" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P42" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q42" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R42" t="n">
         <v>1815.489017493114</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>367.1514666386217</v>
+        <v>654.3010307153154</v>
       </c>
       <c r="C43" t="n">
-        <v>195.1789035175377</v>
+        <v>482.3284675942314</v>
       </c>
       <c r="D43" t="n">
-        <v>195.1789035175377</v>
+        <v>482.3284675942314</v>
       </c>
       <c r="E43" t="n">
-        <v>195.1789035175377</v>
+        <v>349.9331579951985</v>
       </c>
       <c r="F43" t="n">
-        <v>195.1789035175377</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="G43" t="n">
-        <v>115.188423092467</v>
+        <v>178.0713837697589</v>
       </c>
       <c r="H43" t="n">
-        <v>115.188423092467</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I43" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J43" t="n">
-        <v>83.44117394564142</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K43" t="n">
-        <v>411.3314021653587</v>
+        <v>164.0487930513367</v>
       </c>
       <c r="L43" t="n">
-        <v>895.7299881064928</v>
+        <v>465.5902221471493</v>
       </c>
       <c r="M43" t="n">
-        <v>1010.140535602993</v>
+        <v>987.6849039056553</v>
       </c>
       <c r="N43" t="n">
-        <v>1185.928590531125</v>
+        <v>1498.684795104433</v>
       </c>
       <c r="O43" t="n">
-        <v>1664.673317396476</v>
+        <v>1977.429521969784</v>
       </c>
       <c r="P43" t="n">
-        <v>2060.791182666785</v>
+        <v>2060.791182666786</v>
       </c>
       <c r="Q43" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R43" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S43" t="n">
-        <v>2102.459791754789</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="T43" t="n">
-        <v>1862.923865615551</v>
+        <v>1869.937535511292</v>
       </c>
       <c r="U43" t="n">
-        <v>1582.787971434598</v>
+        <v>1869.937535511292</v>
       </c>
       <c r="V43" t="n">
-        <v>1301.076504042627</v>
+        <v>1588.226068119321</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.22410021514</v>
+        <v>1313.373664291834</v>
       </c>
       <c r="X43" t="n">
-        <v>783.6602036609453</v>
+        <v>1070.809767737639</v>
       </c>
       <c r="Y43" t="n">
-        <v>557.3174353506873</v>
+        <v>844.4669994273811</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.3136510436104</v>
+        <v>632.9129681682942</v>
       </c>
       <c r="C44" t="n">
-        <v>467.3136510436104</v>
+        <v>632.9129681682942</v>
       </c>
       <c r="D44" t="n">
-        <v>467.3136510436104</v>
+        <v>632.9129681682942</v>
       </c>
       <c r="E44" t="n">
-        <v>467.3136510436104</v>
+        <v>632.9129681682942</v>
       </c>
       <c r="F44" t="n">
-        <v>42.18946923301057</v>
+        <v>632.9129681682942</v>
       </c>
       <c r="G44" t="n">
-        <v>42.18946923301057</v>
+        <v>319.7344494833398</v>
       </c>
       <c r="H44" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I44" t="n">
-        <v>82.97064708758353</v>
+        <v>82.9706470875841</v>
       </c>
       <c r="J44" t="n">
-        <v>218.9221049399275</v>
+        <v>218.9221049399281</v>
       </c>
       <c r="K44" t="n">
-        <v>430.9231076957179</v>
+        <v>430.9231076957186</v>
       </c>
       <c r="L44" t="n">
-        <v>699.9256343271979</v>
+        <v>699.9256343271986</v>
       </c>
       <c r="M44" t="n">
-        <v>1004.389060027289</v>
+        <v>1004.38906002729</v>
       </c>
       <c r="N44" t="n">
         <v>1314.52876612348</v>
@@ -7672,28 +7672,28 @@
         <v>2021.979826295251</v>
       </c>
       <c r="R44" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="S44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="T44" t="n">
-        <v>2109.473461650528</v>
+        <v>2050.327155020904</v>
       </c>
       <c r="U44" t="n">
-        <v>1851.277309416432</v>
+        <v>1792.131002786808</v>
       </c>
       <c r="V44" t="n">
-        <v>1851.277309416432</v>
+        <v>1434.641587913057</v>
       </c>
       <c r="W44" t="n">
-        <v>1454.885959716779</v>
+        <v>1038.250238213404</v>
       </c>
       <c r="X44" t="n">
-        <v>1043.165960884526</v>
+        <v>1038.250238213404</v>
       </c>
       <c r="Y44" t="n">
-        <v>637.8286908394163</v>
+        <v>632.9129681682942</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>178.3029715687193</v>
       </c>
       <c r="G45" t="n">
-        <v>85.31098196411673</v>
+        <v>85.31098196411676</v>
       </c>
       <c r="H45" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I45" t="n">
-        <v>62.00829666969776</v>
+        <v>85.46560251410963</v>
       </c>
       <c r="J45" t="n">
-        <v>139.922153475317</v>
+        <v>316.8455455652636</v>
       </c>
       <c r="K45" t="n">
-        <v>285.7895037104463</v>
+        <v>462.7128958003929</v>
       </c>
       <c r="L45" t="n">
-        <v>771.8324625632262</v>
+        <v>666.3769622783199</v>
       </c>
       <c r="M45" t="n">
-        <v>1012.644313007543</v>
+        <v>907.1888127226367</v>
       </c>
       <c r="N45" t="n">
-        <v>1262.171141373905</v>
+        <v>1156.715641088999</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.828723586478</v>
+        <v>1381.373223301572</v>
       </c>
       <c r="P45" t="n">
-        <v>1663.994616209847</v>
+        <v>1558.539115924941</v>
       </c>
       <c r="Q45" t="n">
-        <v>1774.31345419543</v>
+        <v>1668.857953910524</v>
       </c>
       <c r="R45" t="n">
         <v>1815.489017493114</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>682.8313868891406</v>
+        <v>386.0238065795342</v>
       </c>
       <c r="C46" t="n">
-        <v>682.8313868891406</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="D46" t="n">
-        <v>519.5146140159113</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="E46" t="n">
-        <v>353.3064081687648</v>
+        <v>214.0512434584502</v>
       </c>
       <c r="F46" t="n">
-        <v>343.4381909652398</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="G46" t="n">
-        <v>178.0713837697589</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="H46" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="I46" t="n">
-        <v>42.18946923301057</v>
+        <v>42.18946923301058</v>
       </c>
       <c r="J46" t="n">
-        <v>161.3628905938623</v>
+        <v>83.44117394564145</v>
       </c>
       <c r="K46" t="n">
-        <v>489.2531188135795</v>
+        <v>411.3314021653588</v>
       </c>
       <c r="L46" t="n">
-        <v>807.1775772998275</v>
+        <v>519.3410945153279</v>
       </c>
       <c r="M46" t="n">
-        <v>921.5881247963281</v>
+        <v>901.2575262576522</v>
       </c>
       <c r="N46" t="n">
-        <v>1034.555093153226</v>
+        <v>1412.25741745643</v>
       </c>
       <c r="O46" t="n">
-        <v>1513.299820018577</v>
+        <v>1513.299820018578</v>
       </c>
       <c r="P46" t="n">
-        <v>1909.417685288886</v>
+        <v>1909.417685288887</v>
       </c>
       <c r="Q46" t="n">
-        <v>2109.473461650528</v>
+        <v>2109.473461650529</v>
       </c>
       <c r="R46" t="n">
         <v>2102.459791754789</v>
       </c>
       <c r="S46" t="n">
-        <v>1947.837849112289</v>
+        <v>2102.459791754789</v>
       </c>
       <c r="T46" t="n">
-        <v>1708.301922973052</v>
+        <v>1881.796205556464</v>
       </c>
       <c r="U46" t="n">
-        <v>1708.301922973052</v>
+        <v>1601.660311375511</v>
       </c>
       <c r="V46" t="n">
-        <v>1426.590455581081</v>
+        <v>1319.94884398354</v>
       </c>
       <c r="W46" t="n">
-        <v>1151.738051753593</v>
+        <v>1045.096440156052</v>
       </c>
       <c r="X46" t="n">
-        <v>909.1741551993986</v>
+        <v>802.5325436018577</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.8313868891406</v>
+        <v>576.1897752915997</v>
       </c>
     </row>
   </sheetData>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>155.016248732864</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>285.2312044190438</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.84428878827639</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>411.8021558202073</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.4556430012464</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>285.2312044190433</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>285.2312044190434</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>411.8021558202072</v>
+        <v>59.76207313981894</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>42.58408016964042</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>261.5369560913545</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>261.5369560913544</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>61.08877082874665</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>349.0863446320599</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>155.016248732864</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>261.5369560913544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>138.4708778349916</v>
+        <v>59.76207313981894</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>155.0162487328641</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>261.5369560913546</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>59.76207313981894</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>345.3927747706328</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>285.231204419043</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>285.2312044190434</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>138.4708778349915</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>196.8133004625062</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>155.0162487328638</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>155.0162487328631</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>139.7975755239192</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>411.8021558202072</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>217.3492585823818</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>178.7104970605526</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10512,16 +10512,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>260.4592654805031</v>
+        <v>290.743922004546</v>
       </c>
       <c r="M34" t="n">
-        <v>411.8021558202073</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>155.0162487328638</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735793</v>
       </c>
       <c r="M37" t="n">
-        <v>358.8350430362262</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>284.1240720345344</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.107132384508972</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>130.0488771197526</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>411.8021558202073</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>213.361814998301</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>261.5369560913545</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>195.4866027735793</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>411.8021558202075</v>
       </c>
       <c r="N43" t="n">
-        <v>63.45564300124614</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>155.0162487328633</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>285.2312044190433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>212.0351173093726</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>270.2079638846704</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1018657343322502</v>
+        <v>0.1018657343322577</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H11" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>228.365761979317</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>376.3894586240482</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15.49568060641505</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.81944908696251</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>333.4363437406366</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>47.93165005730521</v>
       </c>
     </row>
     <row r="15">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>76.01740639850931</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>160.1925692360828</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -23734,19 +23734,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H17" t="n">
         <v>274.7695304478259</v>
@@ -23785,10 +23785,10 @@
         <v>58.55484356332865</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>199.0520868636946</v>
+        <v>252.9072810557731</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.8331613764426</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>72.26896432086183</v>
@@ -23943,7 +23943,7 @@
         <v>153.0757232160747</v>
       </c>
       <c r="T19" t="n">
-        <v>67.89546646770975</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>212.68629308838</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -24025,7 +24025,7 @@
         <v>210.1161913164022</v>
       </c>
       <c r="U20" t="n">
-        <v>179.8815719832861</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>6.943533196782496</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1405668778449</v>
+        <v>3.170850999344651</v>
       </c>
       <c r="U22" t="n">
-        <v>182.1631311794937</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24217,7 +24217,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3763359927316</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.55484356332865</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1161913164022</v>
+        <v>178.8001036769125</v>
       </c>
       <c r="U23" t="n">
         <v>255.6141907117556</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.26896432086183</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.943533196782496</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>29.91091749268506</v>
       </c>
       <c r="X25" t="n">
-        <v>196.8275541703467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>264.1463369418022</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.3310518139933</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6141907117556</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>259.8968354187423</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.03094116020179</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>153.0757232160747</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14.029145054417</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,7 +24694,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3310518139933</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>387.1834138480213</v>
       </c>
       <c r="X29" t="n">
-        <v>316.756388633838</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.713139123526</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>73.63386217642723</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I31" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1405668778449</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>247.3652702497752</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>53.32025589506856</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>398.3310518139933</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>282.8208273564258</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>33.21796658332823</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>231.0827682936491</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.55484356332865</v>
+        <v>58.55484356332864</v>
       </c>
       <c r="T35" t="n">
         <v>210.1161913164022</v>
@@ -25213,13 +25213,13 @@
         <v>255.6141907117556</v>
       </c>
       <c r="V35" t="n">
-        <v>254.8975306563748</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>354.4886019574049</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>98.52978666029779</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I37" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1405668778449</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>146.741086675712</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.8815719832862</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25402,10 +25402,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>250.6250883888044</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3310518139933</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.7695304478259</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1161913164022</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>164.8158065607945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>44.05178419795006</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.713139123526</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>313.9672172968422</v>
+        <v>74.30428743699429</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7695304478259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1161913164022</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6141907117556</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>33.47476728563242</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.52256350270603</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5230953913808</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.943533196782482</v>
       </c>
       <c r="S43" t="n">
         <v>153.0757232160747</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3345352391432</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>246.8399912507669</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3310518139933</v>
+        <v>88.28431831588841</v>
       </c>
       <c r="H44" t="n">
-        <v>274.7695304478259</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.55484356332865</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.1161913164022</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>160.3736214516954</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.713139123526</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5230953913808</v>
       </c>
       <c r="I46" t="n">
-        <v>72.26896432086183</v>
+        <v>72.26896432086181</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0757232160747</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.68361654150232</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3345352391432</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349755.6046683914</v>
+        <v>349755.6046683913</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349755.6046683913</v>
+        <v>349755.6046683914</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349755.6046683913</v>
+        <v>349755.6046683914</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349755.6046683913</v>
+        <v>349755.6046683915</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349755.6046683914</v>
+        <v>349755.6046683915</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349755.6046683913</v>
+        <v>349755.6046683915</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459016.6182600351</v>
+        <v>459016.6182600352</v>
       </c>
       <c r="C2" t="n">
-        <v>459017.3604144077</v>
+        <v>459017.3604144076</v>
       </c>
       <c r="D2" t="n">
         <v>459018.1106995048</v>
       </c>
       <c r="E2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="F2" t="n">
         <v>270597.1217024815</v>
       </c>
       <c r="G2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="H2" t="n">
-        <v>270597.1217024816</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="I2" t="n">
-        <v>270597.1217024816</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="J2" t="n">
         <v>270597.1217024815</v>
@@ -26343,19 +26343,19 @@
         <v>270597.1217024814</v>
       </c>
       <c r="L2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024816</v>
       </c>
       <c r="M2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024815</v>
       </c>
       <c r="N2" t="n">
         <v>270597.1217024815</v>
       </c>
       <c r="O2" t="n">
-        <v>270597.1217024815</v>
+        <v>270597.1217024816</v>
       </c>
       <c r="P2" t="n">
-        <v>270597.1217024814</v>
+        <v>270597.1217024816</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>40837.35405472643</v>
       </c>
       <c r="C3" t="n">
-        <v>2639.872094278544</v>
+        <v>2639.872094278531</v>
       </c>
       <c r="D3" t="n">
         <v>2509.979145161255</v>
@@ -26435,25 +26435,25 @@
         <v>28859.94465042283</v>
       </c>
       <c r="H4" t="n">
-        <v>28859.94465042283</v>
+        <v>28859.94465042284</v>
       </c>
       <c r="I4" t="n">
         <v>28859.94465042283</v>
       </c>
       <c r="J4" t="n">
-        <v>28859.94465042284</v>
+        <v>28859.94465042282</v>
       </c>
       <c r="K4" t="n">
+        <v>28859.9446504228</v>
+      </c>
+      <c r="L4" t="n">
         <v>28859.94465042283</v>
       </c>
-      <c r="L4" t="n">
-        <v>28859.94465042284</v>
-      </c>
       <c r="M4" t="n">
-        <v>28859.94465042281</v>
+        <v>28859.94465042283</v>
       </c>
       <c r="N4" t="n">
-        <v>28859.94465042284</v>
+        <v>28859.94465042283</v>
       </c>
       <c r="O4" t="n">
         <v>28859.94465042283</v>
@@ -26499,19 +26499,19 @@
         <v>42717.63957270506</v>
       </c>
       <c r="L5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="M5" t="n">
-        <v>42717.63957270505</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="N5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="O5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
       <c r="P5" t="n">
-        <v>42717.63957270506</v>
+        <v>42717.63957270508</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70860.09287490396</v>
+        <v>70838.41313693872</v>
       </c>
       <c r="C6" t="n">
-        <v>109928.0882159884</v>
+        <v>109906.4107972554</v>
       </c>
       <c r="D6" t="n">
-        <v>110901.7336592782</v>
+        <v>110880.0585851862</v>
       </c>
       <c r="E6" t="n">
-        <v>-312332.011819288</v>
+        <v>-312942.5024839956</v>
       </c>
       <c r="F6" t="n">
-        <v>199019.5374793536</v>
+        <v>198409.0468146459</v>
       </c>
       <c r="G6" t="n">
-        <v>199019.5374793535</v>
+        <v>198409.0468146459</v>
       </c>
       <c r="H6" t="n">
-        <v>199019.5374793537</v>
+        <v>198409.0468146459</v>
       </c>
       <c r="I6" t="n">
-        <v>199019.5374793537</v>
+        <v>198409.0468146459</v>
       </c>
       <c r="J6" t="n">
-        <v>199019.5374793536</v>
+        <v>198409.046814646</v>
       </c>
       <c r="K6" t="n">
-        <v>199019.5374793535</v>
+        <v>198409.0468146459</v>
       </c>
       <c r="L6" t="n">
-        <v>199019.5374793535</v>
+        <v>198409.0468146461</v>
       </c>
       <c r="M6" t="n">
-        <v>67597.23134506398</v>
+        <v>66986.74068035641</v>
       </c>
       <c r="N6" t="n">
-        <v>199019.5374793536</v>
+        <v>198409.0468146459</v>
       </c>
       <c r="O6" t="n">
-        <v>199019.5374793536</v>
+        <v>198409.046814646</v>
       </c>
       <c r="P6" t="n">
-        <v>199019.5374793535</v>
+        <v>198409.046814646</v>
       </c>
     </row>
   </sheetData>
@@ -26761,25 +26761,25 @@
         <v>488.6992181475702</v>
       </c>
       <c r="J3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="K3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="L3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="M3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="N3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="O3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
       <c r="P3" t="n">
-        <v>488.6992181475702</v>
+        <v>488.6992181475703</v>
       </c>
     </row>
     <row r="4">
@@ -26819,19 +26819,19 @@
         <v>527.3683654126321</v>
       </c>
       <c r="L4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="M4" t="n">
-        <v>527.368365412632</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="O4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="P4" t="n">
-        <v>527.3683654126321</v>
+        <v>527.3683654126323</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>42.37941378408804</v>
       </c>
       <c r="C3" t="n">
-        <v>2.899040518556454</v>
+        <v>2.89904051855644</v>
       </c>
       <c r="D3" t="n">
         <v>2.930801160608368</v>
@@ -27885,7 +27885,7 @@
         <v>7.727993863709251</v>
       </c>
       <c r="M8" t="n">
-        <v>3.400615951243275</v>
+        <v>3.400615951243282</v>
       </c>
       <c r="N8" t="n">
         <v>2.698324440689774</v>
@@ -28043,7 +28043,7 @@
         <v>8.993937537569462</v>
       </c>
       <c r="M10" t="n">
-        <v>8.948026908651901</v>
+        <v>8.948026908651903</v>
       </c>
       <c r="N10" t="n">
         <v>7.445517414732592</v>
@@ -31521,7 +31521,7 @@
         <v>1.984816231208193</v>
       </c>
       <c r="I8" t="n">
-        <v>7.471707824108768</v>
+        <v>7.471707824108769</v>
       </c>
       <c r="J8" t="n">
         <v>16.44904641557491</v>
@@ -31533,7 +31533,7 @@
         <v>30.58404856891367</v>
       </c>
       <c r="M8" t="n">
-        <v>34.03064694818854</v>
+        <v>34.03064694818853</v>
       </c>
       <c r="N8" t="n">
         <v>34.58129839375625</v>
@@ -31630,7 +31630,7 @@
         <v>6.438209625828375</v>
       </c>
       <c r="S9" t="n">
-        <v>1.926096197045998</v>
+        <v>1.926096197045997</v>
       </c>
       <c r="T9" t="n">
         <v>0.4179651487804657</v>
@@ -31706,7 +31706,7 @@
         <v>7.279597574951182</v>
       </c>
       <c r="R10" t="n">
-        <v>3.908901270840141</v>
+        <v>3.90890127084014</v>
       </c>
       <c r="S10" t="n">
         <v>1.51503512660747</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H26" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I26" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J26" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K26" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L26" t="n">
         <v>310.0317663028048</v>
@@ -32961,10 +32961,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O26" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P26" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q26" t="n">
         <v>212.1568550501846</v>
@@ -32973,13 +32973,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S26" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T26" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H27" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I27" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J27" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K27" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L27" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M27" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N27" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O27" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P27" t="n">
         <v>200.7262882991407</v>
@@ -33049,16 +33049,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R27" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S27" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T27" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H28" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I28" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J28" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K28" t="n">
         <v>102.3864919332122</v>
@@ -33119,25 +33119,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O28" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P28" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R28" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S28" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T28" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H29" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I29" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J29" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L29" t="n">
         <v>310.0317663028048</v>
@@ -33198,10 +33198,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O29" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P29" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q29" t="n">
         <v>212.1568550501846</v>
@@ -33210,13 +33210,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S29" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T29" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H30" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I30" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J30" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K30" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L30" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M30" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N30" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O30" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P30" t="n">
         <v>200.7262882991407</v>
@@ -33286,16 +33286,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R30" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S30" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T30" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H31" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I31" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J31" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K31" t="n">
         <v>102.3864919332122</v>
@@ -33356,25 +33356,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O31" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P31" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R31" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S31" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T31" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H32" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I32" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J32" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K32" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L32" t="n">
         <v>310.0317663028048</v>
@@ -33435,10 +33435,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O32" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P32" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q32" t="n">
         <v>212.1568550501846</v>
@@ -33447,13 +33447,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S32" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T32" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H33" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I33" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J33" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K33" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L33" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M33" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N33" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O33" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P33" t="n">
         <v>200.7262882991407</v>
@@ -33523,16 +33523,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R33" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S33" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T33" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H34" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I34" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J34" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K34" t="n">
         <v>102.3864919332122</v>
@@ -33593,25 +33593,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O34" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P34" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R34" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S34" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T34" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H35" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I35" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J35" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K35" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L35" t="n">
         <v>310.0317663028048</v>
@@ -33672,10 +33672,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O35" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P35" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q35" t="n">
         <v>212.1568550501846</v>
@@ -33684,13 +33684,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S35" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T35" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H36" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I36" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J36" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K36" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L36" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M36" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N36" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O36" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P36" t="n">
         <v>200.7262882991407</v>
@@ -33760,16 +33760,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R36" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S36" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T36" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H37" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I37" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J37" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K37" t="n">
         <v>102.3864919332122</v>
@@ -33830,25 +33830,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O37" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P37" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R37" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S37" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T37" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H38" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I38" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797672</v>
       </c>
       <c r="J38" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K38" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L38" t="n">
         <v>310.0317663028048</v>
@@ -33909,10 +33909,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O38" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P38" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q38" t="n">
         <v>212.1568550501846</v>
@@ -33921,13 +33921,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S38" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T38" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H39" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I39" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J39" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K39" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L39" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M39" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N39" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O39" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P39" t="n">
         <v>200.7262882991407</v>
@@ -33997,16 +33997,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R39" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S39" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T39" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H40" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I40" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J40" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K40" t="n">
         <v>102.3864919332122</v>
@@ -34067,25 +34067,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O40" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P40" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R40" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S40" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T40" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H41" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I41" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797715</v>
       </c>
       <c r="J41" t="n">
-        <v>166.7446643869446</v>
+        <v>166.7446643869441</v>
       </c>
       <c r="K41" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L41" t="n">
         <v>310.0317663028048</v>
@@ -34146,10 +34146,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O41" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P41" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q41" t="n">
         <v>212.1568550501846</v>
@@ -34158,13 +34158,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S41" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T41" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H42" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I42" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J42" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K42" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L42" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M42" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N42" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O42" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P42" t="n">
         <v>200.7262882991407</v>
@@ -34234,16 +34234,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R42" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S42" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T42" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H43" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I43" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J43" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K43" t="n">
         <v>102.3864919332122</v>
@@ -34304,25 +34304,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O43" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P43" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R43" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S43" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T43" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.964619972452542</v>
+        <v>1.964619972452543</v>
       </c>
       <c r="H44" t="n">
-        <v>20.1201642928796</v>
+        <v>20.12016429287961</v>
       </c>
       <c r="I44" t="n">
-        <v>75.74101148797671</v>
+        <v>75.74101148797715</v>
       </c>
       <c r="J44" t="n">
         <v>166.7446643869441</v>
       </c>
       <c r="K44" t="n">
-        <v>249.9070278208602</v>
+        <v>249.9070278208603</v>
       </c>
       <c r="L44" t="n">
         <v>310.0317663028048</v>
@@ -34383,10 +34383,10 @@
         <v>350.5520532346385</v>
       </c>
       <c r="O44" t="n">
-        <v>331.0163633835635</v>
+        <v>331.0163633835636</v>
       </c>
       <c r="P44" t="n">
-        <v>282.5148078136413</v>
+        <v>282.5148078136414</v>
       </c>
       <c r="Q44" t="n">
         <v>212.1568550501846</v>
@@ -34395,13 +34395,13 @@
         <v>123.4100593445721</v>
       </c>
       <c r="S44" t="n">
-        <v>44.76877762226235</v>
+        <v>44.76877762226236</v>
       </c>
       <c r="T44" t="n">
-        <v>8.600123929411007</v>
+        <v>8.600123929411009</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1571695977962033</v>
+        <v>0.1571695977962034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.051164356015528</v>
+        <v>1.051164356015529</v>
       </c>
       <c r="H45" t="n">
-        <v>10.15203470151839</v>
+        <v>10.1520347015184</v>
       </c>
       <c r="I45" t="n">
-        <v>36.19140436281535</v>
+        <v>36.19140436281536</v>
       </c>
       <c r="J45" t="n">
-        <v>99.31197979355483</v>
+        <v>99.31197979355485</v>
       </c>
       <c r="K45" t="n">
-        <v>169.7399916465952</v>
+        <v>169.7399916465953</v>
       </c>
       <c r="L45" t="n">
         <v>228.2363659848629</v>
       </c>
       <c r="M45" t="n">
-        <v>266.3410738904257</v>
+        <v>266.3410738904258</v>
       </c>
       <c r="N45" t="n">
         <v>273.3903295937054</v>
       </c>
       <c r="O45" t="n">
-        <v>250.0987404419928</v>
+        <v>250.0987404419929</v>
       </c>
       <c r="P45" t="n">
         <v>200.7262882991407</v>
@@ -34471,16 +34471,16 @@
         <v>134.1802079713857</v>
       </c>
       <c r="R45" t="n">
-        <v>65.26439747261327</v>
+        <v>65.26439747261328</v>
       </c>
       <c r="S45" t="n">
         <v>19.52491687599018</v>
       </c>
       <c r="T45" t="n">
-        <v>4.236930013939782</v>
+        <v>4.236930013939783</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06915554973786374</v>
+        <v>0.06915554973786375</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8812608851841429</v>
+        <v>0.8812608851841431</v>
       </c>
       <c r="H46" t="n">
-        <v>7.835210415546294</v>
+        <v>7.835210415546296</v>
       </c>
       <c r="I46" t="n">
         <v>26.50191825626496</v>
       </c>
       <c r="J46" t="n">
-        <v>62.3051445825189</v>
+        <v>62.30514458251891</v>
       </c>
       <c r="K46" t="n">
         <v>102.3864919332122</v>
@@ -34541,25 +34541,25 @@
         <v>134.8569498209517</v>
       </c>
       <c r="O46" t="n">
-        <v>124.5622203894823</v>
+        <v>124.5622203894824</v>
       </c>
       <c r="P46" t="n">
         <v>106.5844983317258</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.7935819402831</v>
+        <v>73.79358194028312</v>
       </c>
       <c r="R46" t="n">
-        <v>39.62469398291609</v>
+        <v>39.6246939829161</v>
       </c>
       <c r="S46" t="n">
         <v>15.35797378998183</v>
       </c>
       <c r="T46" t="n">
-        <v>3.765387418514064</v>
+        <v>3.765387418514065</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04806877555549876</v>
+        <v>0.04806877555549877</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050407</v>
       </c>
       <c r="J12" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930855</v>
       </c>
       <c r="K12" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L12" t="n">
-        <v>490.9524836896771</v>
+        <v>205.7212792706333</v>
       </c>
       <c r="M12" t="n">
         <v>243.2442933780978</v>
@@ -35512,7 +35512,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R12" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.66838859861703</v>
+        <v>73.51267738689342</v>
       </c>
       <c r="K13" t="n">
         <v>331.2022507269871</v>
       </c>
       <c r="L13" t="n">
-        <v>489.2915009506405</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M13" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N13" t="n">
         <v>114.1080488453513</v>
@@ -35588,7 +35588,7 @@
         <v>400.1190558285954</v>
       </c>
       <c r="Q13" t="n">
-        <v>112.6296621767446</v>
+        <v>49.17401917549816</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>20.01901761281535</v>
       </c>
       <c r="J15" t="n">
-        <v>363.9320698792648</v>
+        <v>78.70086546022149</v>
       </c>
       <c r="K15" t="n">
         <v>147.3407578132619</v>
@@ -35746,7 +35746,7 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.4331696824072</v>
+        <v>396.6643741014506</v>
       </c>
       <c r="R15" t="n">
         <v>41.59147807846912</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K16" t="n">
         <v>81.42183748050022</v>
@@ -35813,7 +35813,7 @@
         <v>109.1006993434031</v>
       </c>
       <c r="M16" t="n">
-        <v>527.3683654126321</v>
+        <v>175.3282827322438</v>
       </c>
       <c r="N16" t="n">
         <v>516.1615062613919</v>
@@ -35822,7 +35822,7 @@
         <v>483.5805321872228</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7877778433797</v>
+        <v>400.1190558285954</v>
       </c>
       <c r="Q16" t="n">
         <v>202.0765417794366</v>
@@ -35962,7 +35962,7 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J18" t="n">
-        <v>78.70086546022149</v>
+        <v>340.237821551576</v>
       </c>
       <c r="K18" t="n">
         <v>147.3407578132619</v>
@@ -35983,7 +35983,7 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.9701257737616</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R18" t="n">
         <v>41.59147807846912</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861703</v>
       </c>
       <c r="K19" t="n">
-        <v>81.42183748050022</v>
+        <v>331.2022507269871</v>
       </c>
       <c r="L19" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M19" t="n">
-        <v>176.6549804211715</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N19" t="n">
-        <v>516.1615062613919</v>
+        <v>463.1943934774112</v>
       </c>
       <c r="O19" t="n">
         <v>102.0630328910579</v>
       </c>
       <c r="P19" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549816</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>43.71326594050407</v>
       </c>
       <c r="J21" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930855</v>
       </c>
       <c r="K21" t="n">
         <v>147.3407578132619</v>
@@ -36220,10 +36220,10 @@
         <v>178.955447094312</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.9701257737616</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R21" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K22" t="n">
         <v>81.42183748050022</v>
@@ -36287,7 +36287,7 @@
         <v>109.1006993434031</v>
       </c>
       <c r="M22" t="n">
-        <v>254.0370874274165</v>
+        <v>175.3282827322438</v>
       </c>
       <c r="N22" t="n">
         <v>516.1615062613919</v>
@@ -36439,13 +36439,13 @@
         <v>78.70086546022149</v>
       </c>
       <c r="K24" t="n">
-        <v>147.3407578132619</v>
+        <v>302.3570065461259</v>
       </c>
       <c r="L24" t="n">
         <v>205.7212792706333</v>
       </c>
       <c r="M24" t="n">
-        <v>504.7812494694523</v>
+        <v>243.2442933780978</v>
       </c>
       <c r="N24" t="n">
         <v>252.0473013801637</v>
@@ -36460,7 +36460,7 @@
         <v>111.4331696824072</v>
       </c>
       <c r="R24" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369598</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,16 +36524,16 @@
         <v>109.1006993434031</v>
       </c>
       <c r="M25" t="n">
-        <v>175.3282827322438</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N25" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O25" t="n">
-        <v>483.5805321872228</v>
+        <v>447.4558076616907</v>
       </c>
       <c r="P25" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373927</v>
       </c>
       <c r="Q25" t="n">
         <v>202.0765417794366</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J26" t="n">
         <v>137.3247049013576</v>
@@ -36600,25 +36600,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L26" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M26" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N26" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O26" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P26" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q26" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R26" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>20.01901761281535</v>
       </c>
       <c r="J27" t="n">
-        <v>78.70086546022149</v>
+        <v>363.9320698792645</v>
       </c>
       <c r="K27" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L27" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M27" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N27" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O27" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P27" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q27" t="n">
-        <v>396.6643741014506</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R27" t="n">
-        <v>41.59147807846912</v>
+        <v>41.59147807846914</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K28" t="n">
-        <v>81.42183748050022</v>
+        <v>81.42183748050024</v>
       </c>
       <c r="L28" t="n">
-        <v>247.5715771783946</v>
+        <v>489.2915009506405</v>
       </c>
       <c r="M28" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N28" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O28" t="n">
-        <v>483.5805321872228</v>
+        <v>298.8763333535642</v>
       </c>
       <c r="P28" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373928</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J29" t="n">
         <v>137.3247049013576</v>
@@ -36837,25 +36837,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L29" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M29" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N29" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O29" t="n">
-        <v>293.6254040275394</v>
+        <v>293.625404027539</v>
       </c>
       <c r="P29" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q29" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R29" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J30" t="n">
-        <v>78.70086546022149</v>
+        <v>78.70086546022152</v>
       </c>
       <c r="K30" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L30" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M30" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N30" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O30" t="n">
-        <v>381.9430994526344</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P30" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.4331696824072</v>
+        <v>266.4494184152704</v>
       </c>
       <c r="R30" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K31" t="n">
-        <v>221.2194130044194</v>
+        <v>81.42183748050024</v>
       </c>
       <c r="L31" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M31" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126321</v>
       </c>
       <c r="N31" t="n">
-        <v>516.1615062613919</v>
+        <v>331.4573074277332</v>
       </c>
       <c r="O31" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P31" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373928</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.0765417794366</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J32" t="n">
         <v>137.3247049013576</v>
@@ -37074,25 +37074,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L32" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M32" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N32" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O32" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P32" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q32" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R32" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J33" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K33" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L33" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M33" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N33" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O33" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P33" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.1436667429598</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R33" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K34" t="n">
-        <v>331.2022507269871</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L34" t="n">
-        <v>369.5599648239062</v>
+        <v>399.8446213479491</v>
       </c>
       <c r="M34" t="n">
-        <v>527.3683654126321</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N34" t="n">
         <v>114.1080488453513</v>
       </c>
       <c r="O34" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P34" t="n">
-        <v>400.1190558285954</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q34" t="n">
         <v>202.0765417794366</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J35" t="n">
         <v>137.3247049013576</v>
@@ -37311,25 +37311,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L35" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M35" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N35" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O35" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P35" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q35" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R35" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J36" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K36" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L36" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M36" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N36" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O36" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P36" t="n">
-        <v>333.9716958271758</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q36" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R36" t="n">
-        <v>148.1121854369598</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K37" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050024</v>
       </c>
       <c r="L37" t="n">
-        <v>489.2915009506405</v>
+        <v>304.5873021169825</v>
       </c>
       <c r="M37" t="n">
-        <v>474.401252628651</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N37" t="n">
         <v>516.1615062613919</v>
       </c>
       <c r="O37" t="n">
-        <v>102.0630328910579</v>
+        <v>483.5805321872228</v>
       </c>
       <c r="P37" t="n">
-        <v>84.20369767373927</v>
+        <v>84.20369767373928</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.17401917549816</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401322</v>
       </c>
       <c r="J38" t="n">
         <v>137.3247049013576</v>
@@ -37548,25 +37548,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L38" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M38" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N38" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O38" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P38" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q38" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R38" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J39" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K39" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L39" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M39" t="n">
-        <v>527.3683654126321</v>
+        <v>243.2442933780978</v>
       </c>
       <c r="N39" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O39" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P39" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.5403020669162</v>
+        <v>111.4331696824072</v>
       </c>
       <c r="R39" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.66838859861703</v>
+        <v>120.3771932937896</v>
       </c>
       <c r="K40" t="n">
-        <v>211.4707146002528</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L40" t="n">
         <v>489.2915009506405</v>
       </c>
       <c r="M40" t="n">
-        <v>527.3683654126321</v>
+        <v>115.5662095924249</v>
       </c>
       <c r="N40" t="n">
         <v>114.1080488453513</v>
       </c>
       <c r="O40" t="n">
-        <v>102.0630328910579</v>
+        <v>315.4248478893589</v>
       </c>
       <c r="P40" t="n">
-        <v>400.1190558285954</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q40" t="n">
         <v>202.0765417794366</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401365</v>
       </c>
       <c r="J41" t="n">
-        <v>137.324704901358</v>
+        <v>137.3247049013576</v>
       </c>
       <c r="K41" t="n">
         <v>214.1424270260509</v>
       </c>
       <c r="L41" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M41" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N41" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O41" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P41" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q41" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R41" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.71326594050407</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J42" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K42" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L42" t="n">
-        <v>205.7212792706333</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M42" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N42" t="n">
-        <v>513.5842574715182</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O42" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P42" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q42" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R42" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.66838859861703</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K43" t="n">
-        <v>331.2022507269871</v>
+        <v>81.42183748050024</v>
       </c>
       <c r="L43" t="n">
-        <v>489.2915009506405</v>
+        <v>304.5873021169825</v>
       </c>
       <c r="M43" t="n">
-        <v>115.5662095924249</v>
+        <v>527.3683654126323</v>
       </c>
       <c r="N43" t="n">
-        <v>177.5636918465975</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O43" t="n">
         <v>483.5805321872228</v>
       </c>
       <c r="P43" t="n">
-        <v>400.1190558285954</v>
+        <v>84.20369767373928</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.17401917549816</v>
+        <v>49.17401917549817</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.1931089440132</v>
+        <v>41.19310894401365</v>
       </c>
       <c r="J44" t="n">
         <v>137.3247049013576</v>
@@ -38022,25 +38022,25 @@
         <v>214.1424270260509</v>
       </c>
       <c r="L44" t="n">
-        <v>271.7197238701818</v>
+        <v>271.7197238701819</v>
       </c>
       <c r="M44" t="n">
-        <v>307.5388138384758</v>
+        <v>307.5388138384759</v>
       </c>
       <c r="N44" t="n">
         <v>313.2724304001925</v>
       </c>
       <c r="O44" t="n">
-        <v>293.6254040275394</v>
+        <v>293.6254040275395</v>
       </c>
       <c r="P44" t="n">
-        <v>244.93944600341</v>
+        <v>244.9394460034101</v>
       </c>
       <c r="Q44" t="n">
         <v>176.0321804455866</v>
       </c>
       <c r="R44" t="n">
-        <v>88.37740944977563</v>
+        <v>88.37740944977566</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.01901761281535</v>
+        <v>43.71326594050409</v>
       </c>
       <c r="J45" t="n">
-        <v>78.70086546022149</v>
+        <v>233.7171141930848</v>
       </c>
       <c r="K45" t="n">
         <v>147.3407578132619</v>
       </c>
       <c r="L45" t="n">
-        <v>490.9524836896766</v>
+        <v>205.7212792706334</v>
       </c>
       <c r="M45" t="n">
         <v>243.2442933780978</v>
       </c>
       <c r="N45" t="n">
-        <v>252.0473013801637</v>
+        <v>252.0473013801638</v>
       </c>
       <c r="O45" t="n">
-        <v>226.9268507197706</v>
+        <v>226.9268507197707</v>
       </c>
       <c r="P45" t="n">
-        <v>178.955447094312</v>
+        <v>178.9554470943121</v>
       </c>
       <c r="Q45" t="n">
         <v>111.4331696824072</v>
       </c>
       <c r="R45" t="n">
-        <v>41.59147807846912</v>
+        <v>148.1121854369599</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.3771932937896</v>
+        <v>41.66838859861704</v>
       </c>
       <c r="K46" t="n">
-        <v>331.2022507269871</v>
+        <v>331.2022507269872</v>
       </c>
       <c r="L46" t="n">
-        <v>321.1358166527757</v>
+        <v>109.1006993434031</v>
       </c>
       <c r="M46" t="n">
-        <v>115.5662095924249</v>
+        <v>385.7741734770953</v>
       </c>
       <c r="N46" t="n">
-        <v>114.1080488453513</v>
+        <v>516.1615062613919</v>
       </c>
       <c r="O46" t="n">
-        <v>483.5805321872228</v>
+        <v>102.0630328910579</v>
       </c>
       <c r="P46" t="n">
-        <v>400.1190558285954</v>
+        <v>400.1190558285955</v>
       </c>
       <c r="Q46" t="n">
         <v>202.0765417794366</v>
